--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7500" tabRatio="590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -1602,11 +1602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1652,27 +1652,25 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8">
-        <v>10</v>
+        <v>0.01</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8">
-        <v>176.77</v>
+        <v>169.7</v>
       </c>
       <c r="D3" s="8">
-        <v>-114.5915</v>
+        <v>-10</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -11191,11 +11189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11251,16 +11249,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
-        <v>10</v>
+      <c r="E2" s="8">
+        <v>265.3</v>
       </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -11290,10 +11288,10 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>265.3</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="12"/>
@@ -11321,15 +11319,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>1</v>
+      <c r="D4" s="8">
+        <v>2</v>
       </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="8">
-        <v>5</v>
+        <v>530.5</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -11353,16 +11351,18 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8">
+        <v>265.3</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -11385,22 +11385,12 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="20">
-        <v>3</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>10</v>
-      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -39085,10 +39085,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="19" t="n">
-        <v>54323.72577981073</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19" t="n">
-        <v>24279.5913933813</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19" t="n">
         <v>68919.21689481987</v>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -32539,10 +32539,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>215.4701547331178</v>
+        <v>52232.65377498252</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>10.77545774155622</v>
+        <v>28337.66514088915</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -32573,10 +32573,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>8752.393188657838</v>
+        <v>10.40446664394481</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>131871.9976828748</v>
+        <v>104.0634985240737</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -32607,10 +32607,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>986.0868392523603</v>
+        <v>986.1085073555032</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>-2398.989988908818</v>
+        <v>-2399.044159572955</v>
       </c>
       <c r="E4" s="12" t="n"/>
       <c r="F4" s="12" t="n"/>
@@ -32641,10 +32641,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>6962.880410473709</v>
+        <v>215.4701547331178</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>414.4526330803891</v>
+        <v>10.77545774155622</v>
       </c>
       <c r="E5" s="12" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -39108,22 +39108,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="n">
-        <v>0</v>
+        <v>54323.72577981073</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>0</v>
+        <v>24279.5913933813</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>215.4701547331178</v>
+        <v>53444.63690371509</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>10.77545774155622</v>
+        <v>26053.45993758182</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>54108.25562507761</v>
+        <v>879.0888760956441</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>24268.81593563974</v>
+        <v>-23423.80676856727</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -39114,16 +39114,16 @@
         <v>24279.5913933813</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>53444.63690371509</v>
+        <v>56074.29007272964</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>26053.45993758182</v>
+        <v>27121.94202977533</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>879.0888760956441</v>
+        <v>-1750.5643</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-23423.80676856727</v>
+        <v>-2842.3506</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1747,11 +1747,9 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -1760,14 +1758,14 @@
       </c>
       <c r="B3" s="11" t="n"/>
       <c r="C3" s="4" t="n">
-        <v>176.77</v>
+        <v>169.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-114.5916</v>
+        <v>-10</v>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>1.061</v>
       </c>
       <c r="G3" s="4" t="n"/>
     </row>
@@ -11316,11 +11314,11 @@
   </sheetPr>
   <dimension ref="A1:Y220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -11388,16 +11386,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="11" t="n"/>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n">
-        <v>10</v>
+      <c r="E2" s="4" t="n">
+        <v>265.3</v>
       </c>
+      <c r="F2" s="4" t="n"/>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="6" t="n"/>
@@ -11427,10 +11425,10 @@
       </c>
       <c r="C3" s="11" t="n"/>
       <c r="D3" s="4" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>1000</v>
+        <v>265.3</v>
       </c>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -11458,15 +11456,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n">
-        <v>1000</v>
+      <c r="D4" s="4" t="n">
+        <v>2</v>
       </c>
+      <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>530.5</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
@@ -11490,21 +11488,19 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="n"/>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1000</v>
+        <v>265.3</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="F5" s="4" t="n"/>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
       <c r="I5" s="6" t="n"/>
@@ -18192,16 +18188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>126.6390101208304</v>
+        <v>115.2584477525045</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>-4.492153763454759</v>
+        <v>0.9561967516779635</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>10.00597398647787</v>
+        <v>0.009562234506542734</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>-0.1916614139279944</v>
+        <v>0.0001806537636677621</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="7" t="n"/>
@@ -18228,16 +18224,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="n">
-        <v>126.9838392849399</v>
+        <v>118.1856250521394</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>-4.600953638344939</v>
+        <v>0.2717420581300506</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>11.02361822207353</v>
+        <v>0.02490673902528644</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.1418299268706676</v>
+        <v>0.09832789338869194</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="7" t="n"/>
@@ -18264,16 +18260,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>125.3593020661317</v>
+        <v>115.8555030915562</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>65.29121298742159</v>
+        <v>-9.854585457887914</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>4.694347270581019e-05</v>
+        <v>0.07273328754165745</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.3778139629163947</v>
+        <v>0.3783531617320866</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="7" t="n"/>
@@ -25960,7 +25956,7 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -26024,15 +26020,11 @@
       <c r="B2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>-84.18759769291522</t>
-        </is>
+      <c r="C2" s="4" t="n">
+        <v>54411.93449965212</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>-122.19424518060416</t>
-        </is>
+      <c r="D2" s="4" t="n">
+        <v>23080.43993820581</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -26062,15 +26054,11 @@
       <c r="B3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>85.00908218277357</t>
-        </is>
+      <c r="C3" s="4" t="n">
+        <v>-88.20871984138842</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>-121.1355910014563</t>
-        </is>
+      <c r="D3" s="4" t="n">
+        <v>1199.151455175486</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32599,13 +32587,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.514136934845075e-06</v>
+        <v>53134.19184963147</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-0.0006668798235663331</v>
+        <v>26571.90456917812</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -32636,10 +32624,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1548806781212139</v>
+        <v>10.40446664394481</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05839001565169762</v>
+        <v>104.0634985240737</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32667,13 +32655,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>963.2869896980937</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-80.70727480272335</v>
+        <v>-2408.235536011754</v>
       </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
@@ -32698,16 +32686,16 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6089604969022475</v>
+        <v>215.4701547331178</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-161.2984051558635</v>
+        <v>10.77545774155622</v>
       </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
@@ -39171,22 +39159,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="n">
-        <v>0.8214844898583493</v>
+        <v>54323.72577981073</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>-243.3298361820605</v>
+        <v>24279.5913933813</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>14.49358278235338</v>
+        <v>56953.00662972117</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>117632.6347360765</v>
+        <v>25346.99008162551</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>-13.6721</v>
+        <v>-2629.2808</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>-117875.9646</v>
+        <v>-1067.3987</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -630,7 +630,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -659,7 +659,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Corr.xlsx</t>
+          <t>Tarea 4.xlsx</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:G3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1753,12 +1753,20 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="11" t="n"/>
+      <c r="A3" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="B3" s="11" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
+      <c r="C3" s="4" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>-10</v>
+      </c>
       <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
+      <c r="F3" s="4" t="n">
+        <v>1.061</v>
+      </c>
       <c r="G3" s="4" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -4520,7 +4528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4592,13 +4600,9 @@
       <c r="Y1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="n">
-        <v>3</v>
-      </c>
+      <c r="A2" s="11" t="n"/>
       <c r="B2" s="11" t="n"/>
-      <c r="C2" s="4" t="n">
-        <v>32</v>
-      </c>
+      <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -11314,7 +11318,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -18122,7 +18126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="B2:E4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -18184,16 +18188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>114.722862182523</v>
+        <v>115.2584626814688</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>1.032915389926161</v>
+        <v>0.956148584252596</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.009559001976805977</v>
+        <v>0.009562241222955382</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.000172346211891827</v>
+        <v>0.0001806461709289782</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="7" t="n"/>
@@ -18220,16 +18224,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="n">
-        <v>115.5727265583196</v>
+        <v>118.1868572254861</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>-2.33205639078825</v>
+        <v>0.2717655679805759</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.02562532773452622</v>
+        <v>0.02490668714136679</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.09903127902230913</v>
+        <v>0.09832873535248474</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="7" t="n"/>
@@ -18256,16 +18260,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>3.524430620049214e-05</v>
+        <v>115.8551461625464</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>81.48079073173639</v>
+        <v>-9.854266330431679</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>4.899802604953451e-13</v>
+        <v>0.07272336035177637</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>9.999999511585767e-07</v>
+        <v>0.3783483104547403</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="7" t="n"/>
@@ -25952,11 +25956,11 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -26016,15 +26020,11 @@
       <c r="B2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>-63499.50125844633</t>
-        </is>
+      <c r="C2" s="4" t="n">
+        <v>-57041.38914919946</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>-24816.20735352512</t>
-        </is>
+      <c r="D2" s="4" t="n">
+        <v>-23079.28038214273</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -26055,10 +26055,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2595.460221551544</v>
+        <v>88.40203035598373</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>46.79544109091361</v>
+        <v>-1242.342931186774</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32529,7 +32529,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -32590,10 +32590,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>52641.52883779499</v>
+        <v>53134.20561414976</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>26325.52847725732</v>
+        <v>26571.91145268296</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -32624,10 +32624,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45.96512097681284</v>
+        <v>10.41113857206406</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>459.7344066370964</v>
+        <v>104.130229881456</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32658,10 +32658,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>921.1643037154532</v>
+        <v>963.3070757743957</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-2302.928031248868</v>
+        <v>-2408.285751579127</v>
       </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
@@ -32692,10 +32692,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6661.866427455625</v>
+        <v>215.4630223936122</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>333.1536112639497</v>
+        <v>10.77510106003327</v>
       </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
@@ -39111,7 +39111,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -39159,22 +39159,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="n">
-        <v>-60904.04103689479</v>
+        <v>-56952.98711884348</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>-24769.4119124342</v>
+        <v>-24321.6233133295</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>63498.53794185269</v>
+        <v>56952.98711884369</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>24815.48970607062</v>
+        <v>25346.95109254699</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>-124402.579</v>
+        <v>-113905.9742376872</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>-49584.9016</v>
+        <v>-49668.57440587649</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -18109,10 +18109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.0007071067811921239</v>
+        <v>199.9987890975842</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-1.017777498078552e-14</v>
+        <v>-1.017777498068326e-14</v>
       </c>
       <c r="D2" s="15" t="n">
         <v>9.999999999999998</v>
@@ -18145,10 +18145,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>99.99978180460921</v>
+        <v>223.6056171051376</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-89.99959485677373</v>
+        <v>-26.5651399294693</v>
       </c>
       <c r="D3" s="15" t="n">
         <v>9.999999999999998</v>
@@ -25934,10 +25934,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>-999.9878909999996</v>
+        <v>999.9878909999993</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>-1.256061921162444e-18</v>
+        <v>3.552658098371352e-13</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -26501,10 +26501,18 @@
       <c r="X18" s="12" t="n"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="17" t="n"/>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
+      <c r="A19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E19" s="12" t="n"/>
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="12" t="n"/>
@@ -26527,10 +26535,18 @@
       <c r="X19" s="12" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
+      <c r="A20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E20" s="12" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="12" t="n"/>
@@ -26553,10 +26569,18 @@
       <c r="X20" s="12" t="n"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="n"/>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
+      <c r="A21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E21" s="12" t="n"/>
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="12" t="n"/>
@@ -26579,10 +26603,18 @@
       <c r="X21" s="12" t="n"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="n"/>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
+      <c r="A22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E22" s="12" t="n"/>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="12" t="n"/>
@@ -26605,10 +26637,18 @@
       <c r="X22" s="12" t="n"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="n"/>
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
+      <c r="A23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1999.982853049999</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>-3.552683219698592e-13</v>
+      </c>
       <c r="E23" s="12" t="n"/>
       <c r="F23" s="12" t="n"/>
       <c r="G23" s="12" t="n"/>
@@ -39164,22 +39204,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="n">
-        <v>-999.9949620499997</v>
+        <v>2999.970744049999</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>8.881784197333691e-24</v>
+        <v>-2.512132724069753e-18</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>999.9949620499997</v>
+        <v>999.9949620499991</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>0.004067046165118882</v>
+        <v>3999.970550921148</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>-1999.989924099999</v>
+        <v>1999.975782</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-0.004067046165118882</v>
+        <v>-3999.970550921148</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -573,7 +573,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -25873,7 +25873,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -25933,11 +25933,15 @@
       <c r="B2" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>999.9878909999993</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>999.9878909999993</t>
+        </is>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>3.552658098371352e-13</v>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>3.552658098371352e-13</t>
+        </is>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -25968,10 +25972,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>-239.9557999960312</v>
+        <v>1999.982853049999</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0009759002659216222</v>
+        <v>-999.9952990484161</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -25995,18 +25999,10 @@
       <c r="X3" s="12" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A4" s="17" t="n"/>
+      <c r="B4" s="17" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="12" t="n"/>
       <c r="F4" s="12" t="n"/>
       <c r="G4" s="12" t="n"/>
@@ -26029,18 +26025,10 @@
       <c r="X4" s="12" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A5" s="17" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="8" t="n"/>
       <c r="E5" s="12" t="n"/>
       <c r="F5" s="12" t="n"/>
       <c r="G5" s="12" t="n"/>
@@ -26063,18 +26051,10 @@
       <c r="X5" s="12" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A6" s="17" t="n"/>
+      <c r="B6" s="17" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="8" t="n"/>
       <c r="E6" s="12" t="n"/>
       <c r="F6" s="12" t="n"/>
       <c r="G6" s="12" t="n"/>
@@ -26097,18 +26077,10 @@
       <c r="X6" s="12" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
       <c r="E7" s="12" t="n"/>
       <c r="F7" s="12" t="n"/>
       <c r="G7" s="12" t="n"/>
@@ -26131,18 +26103,10 @@
       <c r="X7" s="12" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
       <c r="E8" s="12" t="n"/>
       <c r="F8" s="12" t="n"/>
       <c r="G8" s="12" t="n"/>
@@ -26165,18 +26129,10 @@
       <c r="X8" s="12" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
       <c r="E9" s="12" t="n"/>
       <c r="F9" s="12" t="n"/>
       <c r="G9" s="12" t="n"/>
@@ -26199,18 +26155,10 @@
       <c r="X9" s="12" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
       <c r="E10" s="12" t="n"/>
       <c r="F10" s="12" t="n"/>
       <c r="G10" s="12" t="n"/>
@@ -26233,18 +26181,10 @@
       <c r="X10" s="12" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
       <c r="E11" s="12" t="n"/>
       <c r="F11" s="12" t="n"/>
       <c r="G11" s="12" t="n"/>
@@ -26267,18 +26207,10 @@
       <c r="X11" s="12" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
       <c r="E12" s="12" t="n"/>
       <c r="F12" s="12" t="n"/>
       <c r="G12" s="12" t="n"/>
@@ -26301,18 +26233,10 @@
       <c r="X12" s="12" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
       <c r="E13" s="12" t="n"/>
       <c r="F13" s="12" t="n"/>
       <c r="G13" s="12" t="n"/>
@@ -26335,18 +26259,10 @@
       <c r="X13" s="12" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
       <c r="E14" s="12" t="n"/>
       <c r="F14" s="12" t="n"/>
       <c r="G14" s="12" t="n"/>
@@ -26369,14 +26285,10 @@
       <c r="X14" s="12" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr"/>
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
       <c r="E15" s="12" t="n"/>
       <c r="F15" s="12" t="n"/>
       <c r="G15" s="12" t="n"/>
@@ -26399,18 +26311,10 @@
       <c r="X15" s="12" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
       <c r="E16" s="12" t="n"/>
       <c r="F16" s="12" t="n"/>
       <c r="G16" s="12" t="n"/>
@@ -26433,18 +26337,10 @@
       <c r="X16" s="12" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
       <c r="E17" s="12" t="n"/>
       <c r="F17" s="12" t="n"/>
       <c r="G17" s="12" t="n"/>
@@ -26467,18 +26363,10 @@
       <c r="X17" s="12" t="n"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
       <c r="E18" s="12" t="n"/>
       <c r="F18" s="12" t="n"/>
       <c r="G18" s="12" t="n"/>
@@ -26501,18 +26389,10 @@
       <c r="X18" s="12" t="n"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
       <c r="E19" s="12" t="n"/>
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="12" t="n"/>
@@ -26535,18 +26415,10 @@
       <c r="X19" s="12" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
       <c r="E20" s="12" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="12" t="n"/>
@@ -26569,18 +26441,10 @@
       <c r="X20" s="12" t="n"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
       <c r="E21" s="12" t="n"/>
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="12" t="n"/>
@@ -26603,18 +26467,10 @@
       <c r="X21" s="12" t="n"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="8" t="n"/>
       <c r="E22" s="12" t="n"/>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="12" t="n"/>
@@ -26637,18 +26493,10 @@
       <c r="X22" s="12" t="n"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>1999.982853049999</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>-3.552683219698592e-13</v>
-      </c>
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="8" t="n"/>
       <c r="E23" s="12" t="n"/>
       <c r="F23" s="12" t="n"/>
       <c r="G23" s="12" t="n"/>
@@ -32598,7 +32446,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -32658,11 +32506,15 @@
       <c r="B2" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>0</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>-999.9952990484157</v>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>-999.9952990484157</t>
+        </is>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -39155,8 +39007,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -39207,19 +39059,19 @@
         <v>2999.970744049999</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>-2.512132724069753e-18</v>
+        <v>-999.9952990484157</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>999.9949620499991</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>3999.970550921148</v>
+        <v>-0.004066979624440137</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>1999.975782</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-3999.970550921148</v>
+        <v>-999.9912320687913</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>P J.xlsx</t>
+          <t>Tarea 3 P2.xlsx</t>
         </is>
       </c>
     </row>
@@ -1695,21 +1695,37 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="16" t="n"/>
+      <c r="A2" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="16" t="n"/>
-      <c r="C2" s="8" t="n"/>
+      <c r="C2" s="8" t="n">
+        <v>169.7</v>
+      </c>
       <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
+      <c r="E2" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" s="8" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="16" t="n"/>
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="16" t="n"/>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="8" t="n"/>
+      <c r="C3" s="8" t="n">
+        <v>176.77</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>-114.5916</v>
+      </c>
       <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
+      <c r="F3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G3" s="8" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -4471,7 +4487,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4543,18 +4559,12 @@
       <c r="Y1" s="7" t="n"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="16" t="n"/>
       <c r="B2" s="16" t="n"/>
-      <c r="C2" s="8" t="n">
-        <v>14.14</v>
-      </c>
+      <c r="C2" s="8" t="n"/>
       <c r="D2" s="8" t="n"/>
       <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n">
-        <v>26.5251</v>
-      </c>
+      <c r="F2" s="8" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="7" t="n"/>
@@ -11267,7 +11277,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -11338,10 +11348,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="n"/>
-      <c r="D2" s="8" t="n"/>
+      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n">
-        <v>265.2514</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
@@ -11365,16 +11377,18 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="16" t="n"/>
       <c r="D3" s="8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
-      <c r="E3" s="23" t="n"/>
+      <c r="E3" s="23" t="n">
+        <v>1000</v>
+      </c>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="12" t="n"/>
       <c r="H3" s="12" t="n"/>
@@ -11397,12 +11411,20 @@
       <c r="Y3" s="12" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="16" t="n"/>
-      <c r="B4" s="16" t="n"/>
+      <c r="A4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>3</v>
+      </c>
       <c r="C4" s="16" t="n"/>
       <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="G4" s="12" t="n"/>
       <c r="H4" s="12" t="n"/>
       <c r="I4" s="12" t="n"/>
@@ -11424,10 +11446,16 @@
       <c r="Y4" s="12" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="16" t="n"/>
-      <c r="B5" s="16" t="n"/>
+      <c r="A5" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" s="16" t="n"/>
-      <c r="D5" s="8" t="n"/>
+      <c r="D5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="8" t="n"/>
       <c r="G5" s="12" t="n"/>
@@ -11451,12 +11479,22 @@
       <c r="Y5" s="12" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="16" t="n"/>
-      <c r="B6" s="16" t="n"/>
+      <c r="A6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>3</v>
+      </c>
       <c r="C6" s="16" t="n"/>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
+      <c r="D6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="G6" s="12" t="n"/>
       <c r="H6" s="12" t="n"/>
       <c r="I6" s="12" t="n"/>
@@ -18123,16 +18161,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>141.4001570958363</v>
+        <v>101.9602001797301</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-45.00006365568179</v>
+        <v>65.42262437162456</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v>9.999999999999996</v>
+        <v>0.9536440335355394</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-10.00002222004938</v>
+        <v>0.6175960045533422</v>
       </c>
       <c r="F2" s="13" t="n"/>
       <c r="G2" s="13" t="n"/>
@@ -18159,16 +18197,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>99.9848988597778</v>
+        <v>121.0322195431418</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-7.951386703658792e-15</v>
+        <v>62.77099395301186</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>10</v>
+        <v>0.01286525103850118</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-1.387778780781446e-15</v>
+        <v>0.3763922125462105</v>
       </c>
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
@@ -25984,16 +26022,16 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>999.698</v>
+        <v>-1846.520763029876</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>-0.006</v>
+        <v>-1356.464074238219</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -32525,10 +32563,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>0</v>
+        <v>0.005545341835815881</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>-999.7002213338919</v>
+        <v>-1.470912953797316</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -32553,16 +32591,16 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="C3" s="8" t="n">
-        <v>999.6979999999996</v>
+        <v>341.6147672950938</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0</v>
+        <v>128.7887672702504</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -39102,22 +39140,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="22" t="n">
-        <v>999.698</v>
+        <v>-3834.4189</v>
       </c>
       <c r="B2" s="22" t="n">
-        <v>-0.006</v>
+        <v>-318.773</v>
       </c>
       <c r="C2" s="22" t="n">
-        <v>999.698</v>
+        <v>3834.4189</v>
       </c>
       <c r="D2" s="22" t="n">
-        <v>-0.006</v>
+        <v>318.773</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-7668.837795265779</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-1.934858523400251e-13</v>
+        <v>-637.5459005971632</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>-1987.898134603012</v>
+        <v>1987.898134603012</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1037.691123939637</v>
+        <v>-1037.691123939637</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>-1846.520763029876</v>
+        <v>1846.520763029876</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>-1356.464074238219</v>
+        <v>1356.464074238219</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -39140,10 +39140,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="22" t="n">
-        <v>-3834.4189</v>
+        <v>3834.4189</v>
       </c>
       <c r="B2" s="22" t="n">
-        <v>-318.773</v>
+        <v>318.773</v>
       </c>
       <c r="C2" s="22" t="n">
         <v>3834.4189</v>
@@ -39152,10 +39152,10 @@
         <v>318.773</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-7668.837795265779</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-637.5459005971632</v>
+        <v>1.591615728102624e-12</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
